--- a/dictionaries/Raw global codelists.xlsx
+++ b/dictionaries/Raw global codelists.xlsx
@@ -8323,10 +8323,10 @@
         <v>567</v>
       </c>
       <c r="B474" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="C474" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="475">
@@ -8334,10 +8334,10 @@
         <v>567</v>
       </c>
       <c r="B475" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="C475" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="476">
@@ -8345,10 +8345,10 @@
         <v>567</v>
       </c>
       <c r="B476" t="s">
-        <v>580</v>
+        <v>8</v>
       </c>
       <c r="C476" t="s">
-        <v>581</v>
+        <v>360</v>
       </c>
     </row>
     <row r="477">
@@ -8356,510 +8356,510 @@
         <v>567</v>
       </c>
       <c r="B477" t="s">
-        <v>572</v>
+        <v>343</v>
       </c>
       <c r="C477" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="B478" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="C478" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="B479" t="s">
-        <v>8</v>
+        <v>588</v>
       </c>
       <c r="C479" t="s">
-        <v>74</v>
+        <v>589</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="B480" t="s">
-        <v>568</v>
+        <v>8</v>
       </c>
       <c r="C480" t="s">
-        <v>569</v>
+        <v>74</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="B481" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="C481" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="B482" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="C482" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="B483" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="C483" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="B484" t="s">
-        <v>8</v>
+        <v>476</v>
       </c>
       <c r="C484" t="s">
-        <v>360</v>
+        <v>596</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="B485" t="s">
-        <v>343</v>
+        <v>480</v>
       </c>
       <c r="C485" t="s">
-        <v>584</v>
+        <v>481</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="B486" t="s">
-        <v>8</v>
+        <v>597</v>
       </c>
       <c r="C486" t="s">
-        <v>74</v>
+        <v>482</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="B487" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
       <c r="C487" t="s">
-        <v>569</v>
+        <v>484</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="B488" t="s">
-        <v>570</v>
+        <v>599</v>
       </c>
       <c r="C488" t="s">
-        <v>571</v>
+        <v>486</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="B489" t="s">
-        <v>582</v>
+        <v>487</v>
       </c>
       <c r="C489" t="s">
-        <v>583</v>
+        <v>488</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="B490" t="s">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="C490" t="s">
-        <v>581</v>
+        <v>490</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="B491" t="s">
-        <v>572</v>
+        <v>8</v>
       </c>
       <c r="C491" t="s">
-        <v>573</v>
+        <v>74</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="B492" t="s">
-        <v>574</v>
+        <v>601</v>
       </c>
       <c r="C492" t="s">
-        <v>575</v>
+        <v>602</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="B493" t="s">
-        <v>576</v>
+        <v>603</v>
       </c>
       <c r="C493" t="s">
-        <v>577</v>
+        <v>481</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="B494" t="s">
-        <v>343</v>
+        <v>600</v>
       </c>
       <c r="C494" t="s">
-        <v>584</v>
+        <v>484</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>567</v>
+        <v>604</v>
       </c>
       <c r="B495" t="s">
-        <v>578</v>
+        <v>22</v>
       </c>
       <c r="C495" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>567</v>
+        <v>604</v>
       </c>
       <c r="B496" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="C496" t="s">
-        <v>74</v>
+        <v>606</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="B497" t="s">
-        <v>586</v>
+        <v>80</v>
       </c>
       <c r="C497" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="B498" t="s">
-        <v>588</v>
+        <v>82</v>
       </c>
       <c r="C498" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="B499" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="C499" t="s">
-        <v>74</v>
+        <v>609</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="B500" t="s">
-        <v>586</v>
+        <v>22</v>
       </c>
       <c r="C500" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="B501" t="s">
-        <v>590</v>
+        <v>78</v>
       </c>
       <c r="C501" t="s">
-        <v>591</v>
+        <v>612</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="B502" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C502" t="s">
-        <v>74</v>
+        <v>613</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="B503" t="s">
-        <v>582</v>
+        <v>82</v>
       </c>
       <c r="C503" t="s">
-        <v>592</v>
+        <v>614</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="B504" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="C504" t="s">
-        <v>74</v>
+        <v>615</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="B505" t="s">
-        <v>586</v>
+        <v>92</v>
       </c>
       <c r="C505" t="s">
-        <v>587</v>
+        <v>616</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="B506" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="C506" t="s">
-        <v>74</v>
+        <v>183</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>585</v>
+        <v>617</v>
       </c>
       <c r="B507" t="s">
-        <v>588</v>
+        <v>22</v>
       </c>
       <c r="C507" t="s">
-        <v>589</v>
+        <v>618</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>585</v>
+        <v>617</v>
       </c>
       <c r="B508" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="C508" t="s">
-        <v>74</v>
+        <v>619</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>585</v>
+        <v>617</v>
       </c>
       <c r="B509" t="s">
-        <v>586</v>
+        <v>80</v>
       </c>
       <c r="C509" t="s">
-        <v>587</v>
+        <v>620</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>585</v>
+        <v>617</v>
       </c>
       <c r="B510" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="C510" t="s">
-        <v>74</v>
+        <v>621</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>585</v>
+        <v>617</v>
       </c>
       <c r="B511" t="s">
-        <v>593</v>
+        <v>90</v>
       </c>
       <c r="C511" t="s">
-        <v>594</v>
+        <v>622</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>585</v>
+        <v>623</v>
       </c>
       <c r="B512" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C512" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>585</v>
+        <v>623</v>
       </c>
       <c r="B513" t="s">
-        <v>586</v>
+        <v>22</v>
       </c>
       <c r="C513" t="s">
-        <v>587</v>
+        <v>624</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>585</v>
+        <v>623</v>
       </c>
       <c r="B514" t="s">
-        <v>590</v>
+        <v>78</v>
       </c>
       <c r="C514" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>585</v>
+        <v>623</v>
       </c>
       <c r="B515" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C515" t="s">
-        <v>74</v>
+        <v>626</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>585</v>
+        <v>627</v>
       </c>
       <c r="B516" t="s">
-        <v>593</v>
+        <v>22</v>
       </c>
       <c r="C516" t="s">
-        <v>594</v>
+        <v>628</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>585</v>
+        <v>627</v>
       </c>
       <c r="B517" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="C517" t="s">
-        <v>74</v>
+        <v>629</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>585</v>
+        <v>627</v>
       </c>
       <c r="B518" t="s">
-        <v>582</v>
+        <v>80</v>
       </c>
       <c r="C518" t="s">
-        <v>592</v>
+        <v>630</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>585</v>
+        <v>627</v>
       </c>
       <c r="B519" t="s">
-        <v>593</v>
+        <v>82</v>
       </c>
       <c r="C519" t="s">
-        <v>594</v>
+        <v>631</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>585</v>
+        <v>627</v>
       </c>
       <c r="B520" t="s">
-        <v>586</v>
+        <v>90</v>
       </c>
       <c r="C520" t="s">
-        <v>587</v>
+        <v>632</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>585</v>
+        <v>627</v>
       </c>
       <c r="B521" t="s">
-        <v>590</v>
+        <v>92</v>
       </c>
       <c r="C521" t="s">
-        <v>591</v>
+        <v>633</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>585</v>
+        <v>627</v>
       </c>
       <c r="B522" t="s">
-        <v>588</v>
+        <v>24</v>
       </c>
       <c r="C522" t="s">
-        <v>589</v>
+        <v>634</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>585</v>
+        <v>627</v>
       </c>
       <c r="B523" t="s">
         <v>8</v>
@@ -8870,2262 +8870,2262 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
       <c r="B524" t="s">
-        <v>476</v>
+        <v>22</v>
       </c>
       <c r="C524" t="s">
-        <v>596</v>
+        <v>636</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
       <c r="B525" t="s">
-        <v>480</v>
+        <v>78</v>
       </c>
       <c r="C525" t="s">
-        <v>481</v>
+        <v>637</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
       <c r="B526" t="s">
-        <v>597</v>
+        <v>80</v>
       </c>
       <c r="C526" t="s">
-        <v>482</v>
+        <v>638</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
       <c r="B527" t="s">
-        <v>598</v>
+        <v>82</v>
       </c>
       <c r="C527" t="s">
-        <v>484</v>
+        <v>639</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
       <c r="B528" t="s">
-        <v>599</v>
+        <v>90</v>
       </c>
       <c r="C528" t="s">
-        <v>486</v>
+        <v>640</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>595</v>
+        <v>641</v>
       </c>
       <c r="B529" t="s">
-        <v>487</v>
+        <v>642</v>
       </c>
       <c r="C529" t="s">
-        <v>488</v>
+        <v>643</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>595</v>
+        <v>641</v>
       </c>
       <c r="B530" t="s">
-        <v>600</v>
+        <v>644</v>
       </c>
       <c r="C530" t="s">
-        <v>490</v>
+        <v>645</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>595</v>
+        <v>641</v>
       </c>
       <c r="B531" t="s">
-        <v>8</v>
+        <v>646</v>
       </c>
       <c r="C531" t="s">
-        <v>74</v>
+        <v>647</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>595</v>
+        <v>641</v>
       </c>
       <c r="B532" t="s">
-        <v>601</v>
+        <v>648</v>
       </c>
       <c r="C532" t="s">
-        <v>602</v>
+        <v>649</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>595</v>
+        <v>641</v>
       </c>
       <c r="B533" t="s">
-        <v>603</v>
+        <v>650</v>
       </c>
       <c r="C533" t="s">
-        <v>481</v>
+        <v>651</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>595</v>
+        <v>641</v>
       </c>
       <c r="B534" t="s">
-        <v>597</v>
+        <v>652</v>
       </c>
       <c r="C534" t="s">
-        <v>482</v>
+        <v>653</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>595</v>
+        <v>641</v>
       </c>
       <c r="B535" t="s">
-        <v>598</v>
+        <v>654</v>
       </c>
       <c r="C535" t="s">
-        <v>484</v>
+        <v>655</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>595</v>
+        <v>641</v>
       </c>
       <c r="B536" t="s">
-        <v>599</v>
+        <v>181</v>
       </c>
       <c r="C536" t="s">
-        <v>486</v>
+        <v>634</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>595</v>
+        <v>641</v>
       </c>
       <c r="B537" t="s">
-        <v>487</v>
+        <v>8</v>
       </c>
       <c r="C537" t="s">
-        <v>488</v>
+        <v>656</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>595</v>
+        <v>657</v>
       </c>
       <c r="B538" t="s">
-        <v>600</v>
+        <v>658</v>
       </c>
       <c r="C538" t="s">
-        <v>490</v>
+        <v>659</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>595</v>
+        <v>657</v>
       </c>
       <c r="B539" t="s">
-        <v>8</v>
+        <v>660</v>
       </c>
       <c r="C539" t="s">
-        <v>74</v>
+        <v>661</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>595</v>
+        <v>657</v>
       </c>
       <c r="B540" t="s">
-        <v>476</v>
+        <v>662</v>
       </c>
       <c r="C540" t="s">
-        <v>596</v>
+        <v>663</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>595</v>
+        <v>657</v>
       </c>
       <c r="B541" t="s">
-        <v>601</v>
+        <v>664</v>
       </c>
       <c r="C541" t="s">
-        <v>602</v>
+        <v>664</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>595</v>
+        <v>657</v>
       </c>
       <c r="B542" t="s">
-        <v>480</v>
+        <v>665</v>
       </c>
       <c r="C542" t="s">
-        <v>481</v>
+        <v>666</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>595</v>
+        <v>657</v>
       </c>
       <c r="B543" t="s">
-        <v>597</v>
+        <v>667</v>
       </c>
       <c r="C543" t="s">
-        <v>482</v>
+        <v>668</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>595</v>
+        <v>657</v>
       </c>
       <c r="B544" t="s">
-        <v>598</v>
+        <v>669</v>
       </c>
       <c r="C544" t="s">
-        <v>484</v>
+        <v>669</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>595</v>
+        <v>657</v>
       </c>
       <c r="B545" t="s">
-        <v>599</v>
+        <v>670</v>
       </c>
       <c r="C545" t="s">
-        <v>486</v>
+        <v>670</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>595</v>
+        <v>657</v>
       </c>
       <c r="B546" t="s">
-        <v>487</v>
+        <v>671</v>
       </c>
       <c r="C546" t="s">
-        <v>488</v>
+        <v>672</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>595</v>
+        <v>657</v>
       </c>
       <c r="B547" t="s">
-        <v>600</v>
+        <v>673</v>
       </c>
       <c r="C547" t="s">
-        <v>490</v>
+        <v>674</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>595</v>
+        <v>657</v>
       </c>
       <c r="B548" t="s">
-        <v>8</v>
+        <v>675</v>
       </c>
       <c r="C548" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>595</v>
+        <v>657</v>
       </c>
       <c r="B549" t="s">
-        <v>476</v>
+        <v>677</v>
       </c>
       <c r="C549" t="s">
-        <v>596</v>
+        <v>678</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>595</v>
+        <v>657</v>
       </c>
       <c r="B550" t="s">
-        <v>480</v>
+        <v>679</v>
       </c>
       <c r="C550" t="s">
-        <v>481</v>
+        <v>680</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>595</v>
+        <v>657</v>
       </c>
       <c r="B551" t="s">
-        <v>597</v>
+        <v>681</v>
       </c>
       <c r="C551" t="s">
-        <v>482</v>
+        <v>681</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>595</v>
+        <v>657</v>
       </c>
       <c r="B552" t="s">
-        <v>598</v>
+        <v>682</v>
       </c>
       <c r="C552" t="s">
-        <v>484</v>
+        <v>682</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>595</v>
+        <v>657</v>
       </c>
       <c r="B553" t="s">
-        <v>599</v>
+        <v>181</v>
       </c>
       <c r="C553" t="s">
-        <v>486</v>
+        <v>76</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>595</v>
+        <v>657</v>
       </c>
       <c r="B554" t="s">
-        <v>487</v>
+        <v>8</v>
       </c>
       <c r="C554" t="s">
-        <v>488</v>
+        <v>74</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>595</v>
+        <v>683</v>
       </c>
       <c r="B555" t="s">
-        <v>600</v>
+        <v>22</v>
       </c>
       <c r="C555" t="s">
-        <v>490</v>
+        <v>684</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>595</v>
+        <v>683</v>
       </c>
       <c r="B556" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="C556" t="s">
-        <v>74</v>
+        <v>685</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>595</v>
+        <v>683</v>
       </c>
       <c r="B557" t="s">
-        <v>476</v>
+        <v>80</v>
       </c>
       <c r="C557" t="s">
-        <v>596</v>
+        <v>686</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>595</v>
+        <v>683</v>
       </c>
       <c r="B558" t="s">
-        <v>480</v>
+        <v>82</v>
       </c>
       <c r="C558" t="s">
-        <v>481</v>
+        <v>687</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>595</v>
+        <v>683</v>
       </c>
       <c r="B559" t="s">
-        <v>597</v>
+        <v>90</v>
       </c>
       <c r="C559" t="s">
-        <v>482</v>
+        <v>688</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>595</v>
+        <v>683</v>
       </c>
       <c r="B560" t="s">
-        <v>598</v>
+        <v>92</v>
       </c>
       <c r="C560" t="s">
-        <v>484</v>
+        <v>689</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>595</v>
+        <v>683</v>
       </c>
       <c r="B561" t="s">
-        <v>599</v>
+        <v>181</v>
       </c>
       <c r="C561" t="s">
-        <v>486</v>
+        <v>76</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>595</v>
+        <v>683</v>
       </c>
       <c r="B562" t="s">
-        <v>487</v>
+        <v>8</v>
       </c>
       <c r="C562" t="s">
-        <v>488</v>
+        <v>74</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>595</v>
+        <v>690</v>
       </c>
       <c r="B563" t="s">
-        <v>600</v>
+        <v>691</v>
       </c>
       <c r="C563" t="s">
-        <v>490</v>
+        <v>692</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>595</v>
+        <v>690</v>
       </c>
       <c r="B564" t="s">
-        <v>8</v>
+        <v>693</v>
       </c>
       <c r="C564" t="s">
-        <v>74</v>
+        <v>694</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>595</v>
+        <v>690</v>
       </c>
       <c r="B565" t="s">
-        <v>601</v>
+        <v>695</v>
       </c>
       <c r="C565" t="s">
-        <v>602</v>
+        <v>696</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>595</v>
+        <v>697</v>
       </c>
       <c r="B566" t="s">
-        <v>480</v>
+        <v>698</v>
       </c>
       <c r="C566" t="s">
-        <v>481</v>
+        <v>699</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>595</v>
+        <v>697</v>
       </c>
       <c r="B567" t="s">
-        <v>597</v>
+        <v>700</v>
       </c>
       <c r="C567" t="s">
-        <v>482</v>
+        <v>701</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>595</v>
+        <v>697</v>
       </c>
       <c r="B568" t="s">
-        <v>598</v>
+        <v>702</v>
       </c>
       <c r="C568" t="s">
-        <v>484</v>
+        <v>703</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>595</v>
+        <v>697</v>
       </c>
       <c r="B569" t="s">
-        <v>599</v>
+        <v>704</v>
       </c>
       <c r="C569" t="s">
-        <v>486</v>
+        <v>705</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>595</v>
+        <v>697</v>
       </c>
       <c r="B570" t="s">
-        <v>487</v>
+        <v>706</v>
       </c>
       <c r="C570" t="s">
-        <v>488</v>
+        <v>707</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>595</v>
+        <v>697</v>
       </c>
       <c r="B571" t="s">
-        <v>600</v>
+        <v>693</v>
       </c>
       <c r="C571" t="s">
-        <v>490</v>
+        <v>694</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>595</v>
+        <v>697</v>
       </c>
       <c r="B572" t="s">
-        <v>8</v>
+        <v>708</v>
       </c>
       <c r="C572" t="s">
-        <v>74</v>
+        <v>709</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>595</v>
+        <v>710</v>
       </c>
       <c r="B573" t="s">
-        <v>601</v>
+        <v>22</v>
       </c>
       <c r="C573" t="s">
-        <v>602</v>
+        <v>711</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>595</v>
+        <v>710</v>
       </c>
       <c r="B574" t="s">
-        <v>480</v>
+        <v>78</v>
       </c>
       <c r="C574" t="s">
-        <v>481</v>
+        <v>712</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>595</v>
+        <v>710</v>
       </c>
       <c r="B575" t="s">
-        <v>597</v>
+        <v>80</v>
       </c>
       <c r="C575" t="s">
-        <v>482</v>
+        <v>713</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>595</v>
+        <v>710</v>
       </c>
       <c r="B576" t="s">
-        <v>598</v>
+        <v>82</v>
       </c>
       <c r="C576" t="s">
-        <v>484</v>
+        <v>714</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>595</v>
+        <v>710</v>
       </c>
       <c r="B577" t="s">
-        <v>599</v>
+        <v>90</v>
       </c>
       <c r="C577" t="s">
-        <v>486</v>
+        <v>715</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>595</v>
+        <v>710</v>
       </c>
       <c r="B578" t="s">
-        <v>487</v>
+        <v>92</v>
       </c>
       <c r="C578" t="s">
-        <v>488</v>
+        <v>716</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>595</v>
+        <v>710</v>
       </c>
       <c r="B579" t="s">
-        <v>600</v>
+        <v>8</v>
       </c>
       <c r="C579" t="s">
-        <v>490</v>
+        <v>74</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>595</v>
+        <v>717</v>
       </c>
       <c r="B580" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C580" t="s">
-        <v>74</v>
+        <v>718</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>595</v>
+        <v>717</v>
       </c>
       <c r="B581" t="s">
-        <v>601</v>
+        <v>78</v>
       </c>
       <c r="C581" t="s">
-        <v>602</v>
+        <v>719</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>595</v>
+        <v>717</v>
       </c>
       <c r="B582" t="s">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="C582" t="s">
-        <v>481</v>
+        <v>720</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>595</v>
+        <v>717</v>
       </c>
       <c r="B583" t="s">
-        <v>597</v>
+        <v>82</v>
       </c>
       <c r="C583" t="s">
-        <v>482</v>
+        <v>721</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>595</v>
+        <v>717</v>
       </c>
       <c r="B584" t="s">
-        <v>600</v>
+        <v>90</v>
       </c>
       <c r="C584" t="s">
-        <v>484</v>
+        <v>722</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>595</v>
+        <v>717</v>
       </c>
       <c r="B585" t="s">
-        <v>599</v>
+        <v>92</v>
       </c>
       <c r="C585" t="s">
-        <v>486</v>
+        <v>723</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>595</v>
+        <v>717</v>
       </c>
       <c r="B586" t="s">
-        <v>487</v>
+        <v>8</v>
       </c>
       <c r="C586" t="s">
-        <v>488</v>
+        <v>74</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>595</v>
+        <v>724</v>
       </c>
       <c r="B587" t="s">
-        <v>600</v>
+        <v>22</v>
       </c>
       <c r="C587" t="s">
-        <v>490</v>
+        <v>725</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>595</v>
+        <v>724</v>
       </c>
       <c r="B588" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="C588" t="s">
-        <v>74</v>
+        <v>726</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>595</v>
+        <v>724</v>
       </c>
       <c r="B589" t="s">
-        <v>476</v>
+        <v>80</v>
       </c>
       <c r="C589" t="s">
-        <v>596</v>
+        <v>727</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>595</v>
+        <v>724</v>
       </c>
       <c r="B590" t="s">
-        <v>480</v>
+        <v>181</v>
       </c>
       <c r="C590" t="s">
-        <v>481</v>
+        <v>76</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>595</v>
+        <v>724</v>
       </c>
       <c r="B591" t="s">
-        <v>597</v>
+        <v>8</v>
       </c>
       <c r="C591" t="s">
-        <v>482</v>
+        <v>74</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>595</v>
+        <v>728</v>
       </c>
       <c r="B592" t="s">
-        <v>598</v>
+        <v>24</v>
       </c>
       <c r="C592" t="s">
-        <v>484</v>
+        <v>76</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>595</v>
+        <v>728</v>
       </c>
       <c r="B593" t="s">
-        <v>599</v>
+        <v>22</v>
       </c>
       <c r="C593" t="s">
-        <v>486</v>
+        <v>419</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>595</v>
+        <v>728</v>
       </c>
       <c r="B594" t="s">
-        <v>487</v>
+        <v>78</v>
       </c>
       <c r="C594" t="s">
-        <v>488</v>
+        <v>420</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>595</v>
+        <v>728</v>
       </c>
       <c r="B595" t="s">
-        <v>600</v>
+        <v>80</v>
       </c>
       <c r="C595" t="s">
-        <v>490</v>
+        <v>421</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>595</v>
+        <v>728</v>
       </c>
       <c r="B596" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="C596" t="s">
-        <v>74</v>
+        <v>422</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>595</v>
+        <v>728</v>
       </c>
       <c r="B597" t="s">
-        <v>601</v>
+        <v>90</v>
       </c>
       <c r="C597" t="s">
-        <v>602</v>
+        <v>423</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>595</v>
+        <v>728</v>
       </c>
       <c r="B598" t="s">
-        <v>480</v>
+        <v>92</v>
       </c>
       <c r="C598" t="s">
-        <v>481</v>
+        <v>424</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>595</v>
+        <v>728</v>
       </c>
       <c r="B599" t="s">
-        <v>597</v>
+        <v>94</v>
       </c>
       <c r="C599" t="s">
-        <v>482</v>
+        <v>425</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>595</v>
+        <v>728</v>
       </c>
       <c r="B600" t="s">
-        <v>598</v>
+        <v>96</v>
       </c>
       <c r="C600" t="s">
-        <v>484</v>
+        <v>426</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>595</v>
+        <v>728</v>
       </c>
       <c r="B601" t="s">
-        <v>599</v>
+        <v>98</v>
       </c>
       <c r="C601" t="s">
-        <v>486</v>
+        <v>427</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>595</v>
+        <v>728</v>
       </c>
       <c r="B602" t="s">
-        <v>487</v>
+        <v>100</v>
       </c>
       <c r="C602" t="s">
-        <v>488</v>
+        <v>428</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>595</v>
+        <v>728</v>
       </c>
       <c r="B603" t="s">
-        <v>600</v>
+        <v>201</v>
       </c>
       <c r="C603" t="s">
-        <v>490</v>
+        <v>429</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>595</v>
+        <v>728</v>
       </c>
       <c r="B604" t="s">
-        <v>8</v>
+        <v>215</v>
       </c>
       <c r="C604" t="s">
-        <v>74</v>
+        <v>430</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>604</v>
+        <v>729</v>
       </c>
       <c r="B605" t="s">
-        <v>22</v>
+        <v>730</v>
       </c>
       <c r="C605" t="s">
-        <v>605</v>
+        <v>731</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>604</v>
+        <v>729</v>
       </c>
       <c r="B606" t="s">
-        <v>78</v>
+        <v>732</v>
       </c>
       <c r="C606" t="s">
-        <v>606</v>
+        <v>733</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>604</v>
+        <v>729</v>
       </c>
       <c r="B607" t="s">
-        <v>80</v>
+        <v>734</v>
       </c>
       <c r="C607" t="s">
-        <v>607</v>
+        <v>735</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>604</v>
+        <v>729</v>
       </c>
       <c r="B608" t="s">
-        <v>82</v>
+        <v>736</v>
       </c>
       <c r="C608" t="s">
-        <v>608</v>
+        <v>737</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>604</v>
+        <v>729</v>
       </c>
       <c r="B609" t="s">
-        <v>90</v>
+        <v>738</v>
       </c>
       <c r="C609" t="s">
-        <v>609</v>
+        <v>738</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>610</v>
+        <v>729</v>
       </c>
       <c r="B610" t="s">
-        <v>22</v>
+        <v>739</v>
       </c>
       <c r="C610" t="s">
-        <v>611</v>
+        <v>739</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>610</v>
+        <v>729</v>
       </c>
       <c r="B611" t="s">
-        <v>78</v>
+        <v>740</v>
       </c>
       <c r="C611" t="s">
-        <v>612</v>
+        <v>741</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>610</v>
+        <v>729</v>
       </c>
       <c r="B612" t="s">
-        <v>80</v>
+        <v>742</v>
       </c>
       <c r="C612" t="s">
-        <v>613</v>
+        <v>743</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>610</v>
+        <v>729</v>
       </c>
       <c r="B613" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="C613" t="s">
-        <v>614</v>
+        <v>74</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>610</v>
+        <v>744</v>
       </c>
       <c r="B614" t="s">
-        <v>90</v>
+        <v>730</v>
       </c>
       <c r="C614" t="s">
-        <v>615</v>
+        <v>731</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>610</v>
+        <v>744</v>
       </c>
       <c r="B615" t="s">
-        <v>92</v>
+        <v>738</v>
       </c>
       <c r="C615" t="s">
-        <v>616</v>
+        <v>738</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>610</v>
+        <v>744</v>
       </c>
       <c r="B616" t="s">
-        <v>94</v>
+        <v>740</v>
       </c>
       <c r="C616" t="s">
-        <v>183</v>
+        <v>741</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>617</v>
+        <v>744</v>
       </c>
       <c r="B617" t="s">
-        <v>22</v>
+        <v>745</v>
       </c>
       <c r="C617" t="s">
-        <v>618</v>
+        <v>746</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>617</v>
+        <v>744</v>
       </c>
       <c r="B618" t="s">
-        <v>78</v>
+        <v>747</v>
       </c>
       <c r="C618" t="s">
-        <v>619</v>
+        <v>748</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>617</v>
+        <v>744</v>
       </c>
       <c r="B619" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="C619" t="s">
-        <v>620</v>
+        <v>74</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>617</v>
+        <v>749</v>
       </c>
       <c r="B620" t="s">
-        <v>82</v>
+        <v>730</v>
       </c>
       <c r="C620" t="s">
-        <v>621</v>
+        <v>731</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>617</v>
+        <v>749</v>
       </c>
       <c r="B621" t="s">
-        <v>90</v>
+        <v>732</v>
       </c>
       <c r="C621" t="s">
-        <v>622</v>
+        <v>733</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>623</v>
+        <v>749</v>
       </c>
       <c r="B622" t="s">
-        <v>24</v>
+        <v>734</v>
       </c>
       <c r="C622" t="s">
-        <v>76</v>
+        <v>735</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>623</v>
+        <v>749</v>
       </c>
       <c r="B623" t="s">
-        <v>22</v>
+        <v>736</v>
       </c>
       <c r="C623" t="s">
-        <v>624</v>
+        <v>737</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>623</v>
+        <v>749</v>
       </c>
       <c r="B624" t="s">
-        <v>78</v>
+        <v>750</v>
       </c>
       <c r="C624" t="s">
-        <v>625</v>
+        <v>750</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>623</v>
+        <v>749</v>
       </c>
       <c r="B625" t="s">
-        <v>80</v>
+        <v>751</v>
       </c>
       <c r="C625" t="s">
-        <v>626</v>
+        <v>752</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>627</v>
+        <v>749</v>
       </c>
       <c r="B626" t="s">
-        <v>22</v>
+        <v>739</v>
       </c>
       <c r="C626" t="s">
-        <v>628</v>
+        <v>739</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>627</v>
+        <v>749</v>
       </c>
       <c r="B627" t="s">
-        <v>78</v>
+        <v>753</v>
       </c>
       <c r="C627" t="s">
-        <v>629</v>
+        <v>753</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>627</v>
+        <v>749</v>
       </c>
       <c r="B628" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="C628" t="s">
-        <v>630</v>
+        <v>74</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>627</v>
+        <v>754</v>
       </c>
       <c r="B629" t="s">
-        <v>82</v>
+        <v>730</v>
       </c>
       <c r="C629" t="s">
-        <v>631</v>
+        <v>731</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>627</v>
+        <v>754</v>
       </c>
       <c r="B630" t="s">
-        <v>90</v>
+        <v>732</v>
       </c>
       <c r="C630" t="s">
-        <v>632</v>
+        <v>733</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>627</v>
+        <v>754</v>
       </c>
       <c r="B631" t="s">
-        <v>92</v>
+        <v>734</v>
       </c>
       <c r="C631" t="s">
-        <v>633</v>
+        <v>735</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>627</v>
+        <v>754</v>
       </c>
       <c r="B632" t="s">
-        <v>24</v>
+        <v>736</v>
       </c>
       <c r="C632" t="s">
-        <v>634</v>
+        <v>737</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>627</v>
+        <v>754</v>
       </c>
       <c r="B633" t="s">
-        <v>8</v>
+        <v>750</v>
       </c>
       <c r="C633" t="s">
-        <v>74</v>
+        <v>750</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>635</v>
+        <v>754</v>
       </c>
       <c r="B634" t="s">
-        <v>22</v>
+        <v>751</v>
       </c>
       <c r="C634" t="s">
-        <v>636</v>
+        <v>752</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>635</v>
+        <v>754</v>
       </c>
       <c r="B635" t="s">
-        <v>78</v>
+        <v>739</v>
       </c>
       <c r="C635" t="s">
-        <v>637</v>
+        <v>739</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>635</v>
+        <v>754</v>
       </c>
       <c r="B636" t="s">
-        <v>80</v>
+        <v>740</v>
       </c>
       <c r="C636" t="s">
-        <v>638</v>
+        <v>741</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>635</v>
+        <v>754</v>
       </c>
       <c r="B637" t="s">
-        <v>82</v>
+        <v>745</v>
       </c>
       <c r="C637" t="s">
-        <v>639</v>
+        <v>746</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>635</v>
+        <v>754</v>
       </c>
       <c r="B638" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="C638" t="s">
-        <v>640</v>
+        <v>74</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>641</v>
+        <v>755</v>
       </c>
       <c r="B639" t="s">
-        <v>642</v>
+        <v>22</v>
       </c>
       <c r="C639" t="s">
-        <v>643</v>
+        <v>756</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>641</v>
+        <v>755</v>
       </c>
       <c r="B640" t="s">
-        <v>644</v>
+        <v>78</v>
       </c>
       <c r="C640" t="s">
-        <v>645</v>
+        <v>757</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>641</v>
+        <v>755</v>
       </c>
       <c r="B641" t="s">
-        <v>646</v>
+        <v>80</v>
       </c>
       <c r="C641" t="s">
-        <v>647</v>
+        <v>758</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>641</v>
+        <v>755</v>
       </c>
       <c r="B642" t="s">
-        <v>648</v>
+        <v>82</v>
       </c>
       <c r="C642" t="s">
-        <v>649</v>
+        <v>759</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>641</v>
+        <v>755</v>
       </c>
       <c r="B643" t="s">
-        <v>650</v>
+        <v>90</v>
       </c>
       <c r="C643" t="s">
-        <v>651</v>
+        <v>760</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>641</v>
+        <v>761</v>
       </c>
       <c r="B644" t="s">
-        <v>652</v>
+        <v>80</v>
       </c>
       <c r="C644" t="s">
-        <v>653</v>
+        <v>762</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>641</v>
+        <v>761</v>
       </c>
       <c r="B645" t="s">
-        <v>654</v>
+        <v>78</v>
       </c>
       <c r="C645" t="s">
-        <v>655</v>
+        <v>763</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>641</v>
+        <v>761</v>
       </c>
       <c r="B646" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="C646" t="s">
-        <v>634</v>
+        <v>764</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>641</v>
+        <v>761</v>
       </c>
       <c r="B647" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C647" t="s">
-        <v>656</v>
+        <v>765</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>657</v>
+        <v>761</v>
       </c>
       <c r="B648" t="s">
-        <v>658</v>
+        <v>62</v>
       </c>
       <c r="C648" t="s">
-        <v>659</v>
+        <v>63</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>657</v>
+        <v>766</v>
       </c>
       <c r="B649" t="s">
-        <v>660</v>
+        <v>767</v>
       </c>
       <c r="C649" t="s">
-        <v>661</v>
+        <v>768</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>657</v>
+        <v>766</v>
       </c>
       <c r="B650" t="s">
-        <v>662</v>
+        <v>162</v>
       </c>
       <c r="C650" t="s">
-        <v>663</v>
+        <v>769</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>657</v>
+        <v>766</v>
       </c>
       <c r="B651" t="s">
-        <v>664</v>
+        <v>770</v>
       </c>
       <c r="C651" t="s">
-        <v>664</v>
+        <v>771</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>657</v>
+        <v>766</v>
       </c>
       <c r="B652" t="s">
-        <v>665</v>
+        <v>772</v>
       </c>
       <c r="C652" t="s">
-        <v>666</v>
+        <v>773</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>657</v>
+        <v>766</v>
       </c>
       <c r="B653" t="s">
-        <v>667</v>
+        <v>169</v>
       </c>
       <c r="C653" t="s">
-        <v>668</v>
+        <v>774</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>657</v>
+        <v>766</v>
       </c>
       <c r="B654" t="s">
-        <v>669</v>
+        <v>775</v>
       </c>
       <c r="C654" t="s">
-        <v>669</v>
+        <v>776</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>657</v>
+        <v>766</v>
       </c>
       <c r="B655" t="s">
-        <v>670</v>
+        <v>777</v>
       </c>
       <c r="C655" t="s">
-        <v>670</v>
+        <v>778</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>657</v>
+        <v>766</v>
       </c>
       <c r="B656" t="s">
-        <v>671</v>
+        <v>52</v>
       </c>
       <c r="C656" t="s">
-        <v>672</v>
+        <v>779</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>657</v>
+        <v>766</v>
       </c>
       <c r="B657" t="s">
-        <v>673</v>
+        <v>224</v>
       </c>
       <c r="C657" t="s">
-        <v>674</v>
+        <v>780</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>657</v>
+        <v>766</v>
       </c>
       <c r="B658" t="s">
-        <v>675</v>
+        <v>781</v>
       </c>
       <c r="C658" t="s">
-        <v>676</v>
+        <v>782</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>657</v>
+        <v>766</v>
       </c>
       <c r="B659" t="s">
-        <v>677</v>
+        <v>783</v>
       </c>
       <c r="C659" t="s">
-        <v>678</v>
+        <v>784</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>657</v>
+        <v>766</v>
       </c>
       <c r="B660" t="s">
-        <v>679</v>
+        <v>8</v>
       </c>
       <c r="C660" t="s">
-        <v>680</v>
+        <v>74</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>657</v>
+        <v>785</v>
       </c>
       <c r="B661" t="s">
-        <v>681</v>
+        <v>786</v>
       </c>
       <c r="C661" t="s">
-        <v>681</v>
+        <v>787</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>657</v>
+        <v>785</v>
       </c>
       <c r="B662" t="s">
-        <v>682</v>
+        <v>788</v>
       </c>
       <c r="C662" t="s">
-        <v>682</v>
+        <v>789</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>657</v>
+        <v>785</v>
       </c>
       <c r="B663" t="s">
-        <v>181</v>
+        <v>790</v>
       </c>
       <c r="C663" t="s">
-        <v>76</v>
+        <v>791</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>657</v>
+        <v>785</v>
       </c>
       <c r="B664" t="s">
-        <v>8</v>
+        <v>792</v>
       </c>
       <c r="C664" t="s">
-        <v>74</v>
+        <v>793</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>683</v>
+        <v>785</v>
       </c>
       <c r="B665" t="s">
-        <v>22</v>
+        <v>794</v>
       </c>
       <c r="C665" t="s">
-        <v>684</v>
+        <v>795</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>683</v>
+        <v>785</v>
       </c>
       <c r="B666" t="s">
-        <v>78</v>
+        <v>796</v>
       </c>
       <c r="C666" t="s">
-        <v>685</v>
+        <v>797</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>683</v>
+        <v>785</v>
       </c>
       <c r="B667" t="s">
-        <v>80</v>
+        <v>798</v>
       </c>
       <c r="C667" t="s">
-        <v>686</v>
+        <v>799</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>683</v>
+        <v>785</v>
       </c>
       <c r="B668" t="s">
-        <v>82</v>
+        <v>800</v>
       </c>
       <c r="C668" t="s">
-        <v>687</v>
+        <v>801</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>683</v>
+        <v>785</v>
       </c>
       <c r="B669" t="s">
-        <v>90</v>
+        <v>802</v>
       </c>
       <c r="C669" t="s">
-        <v>688</v>
+        <v>803</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>683</v>
+        <v>785</v>
       </c>
       <c r="B670" t="s">
-        <v>92</v>
+        <v>804</v>
       </c>
       <c r="C670" t="s">
-        <v>689</v>
+        <v>805</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>683</v>
+        <v>785</v>
       </c>
       <c r="B671" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="C671" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>683</v>
+        <v>806</v>
       </c>
       <c r="B672" t="s">
-        <v>8</v>
+        <v>807</v>
       </c>
       <c r="C672" t="s">
-        <v>74</v>
+        <v>808</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>690</v>
+        <v>806</v>
       </c>
       <c r="B673" t="s">
-        <v>691</v>
+        <v>809</v>
       </c>
       <c r="C673" t="s">
-        <v>692</v>
+        <v>810</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>690</v>
+        <v>806</v>
       </c>
       <c r="B674" t="s">
-        <v>693</v>
+        <v>811</v>
       </c>
       <c r="C674" t="s">
-        <v>694</v>
+        <v>812</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>690</v>
+        <v>806</v>
       </c>
       <c r="B675" t="s">
-        <v>695</v>
+        <v>813</v>
       </c>
       <c r="C675" t="s">
-        <v>696</v>
+        <v>814</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>697</v>
+        <v>806</v>
       </c>
       <c r="B676" t="s">
-        <v>698</v>
+        <v>815</v>
       </c>
       <c r="C676" t="s">
-        <v>699</v>
+        <v>816</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>697</v>
+        <v>806</v>
       </c>
       <c r="B677" t="s">
-        <v>700</v>
+        <v>817</v>
       </c>
       <c r="C677" t="s">
-        <v>701</v>
+        <v>818</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>697</v>
+        <v>819</v>
       </c>
       <c r="B678" t="s">
-        <v>702</v>
+        <v>723</v>
       </c>
       <c r="C678" t="s">
-        <v>703</v>
+        <v>723</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>697</v>
+        <v>819</v>
       </c>
       <c r="B679" t="s">
-        <v>704</v>
+        <v>820</v>
       </c>
       <c r="C679" t="s">
-        <v>705</v>
+        <v>821</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>697</v>
+        <v>819</v>
       </c>
       <c r="B680" t="s">
-        <v>706</v>
+        <v>8</v>
       </c>
       <c r="C680" t="s">
-        <v>707</v>
+        <v>74</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>697</v>
+        <v>822</v>
       </c>
       <c r="B681" t="s">
-        <v>693</v>
+        <v>568</v>
       </c>
       <c r="C681" t="s">
-        <v>694</v>
+        <v>569</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>697</v>
+        <v>822</v>
       </c>
       <c r="B682" t="s">
-        <v>708</v>
+        <v>572</v>
       </c>
       <c r="C682" t="s">
-        <v>709</v>
+        <v>823</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>710</v>
+        <v>822</v>
       </c>
       <c r="B683" t="s">
-        <v>22</v>
+        <v>824</v>
       </c>
       <c r="C683" t="s">
-        <v>711</v>
+        <v>825</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>710</v>
+        <v>822</v>
       </c>
       <c r="B684" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C684" t="s">
-        <v>712</v>
+        <v>74</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>710</v>
+        <v>826</v>
       </c>
       <c r="B685" t="s">
-        <v>80</v>
+        <v>586</v>
       </c>
       <c r="C685" t="s">
-        <v>713</v>
+        <v>587</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>710</v>
+        <v>826</v>
       </c>
       <c r="B686" t="s">
-        <v>82</v>
+        <v>588</v>
       </c>
       <c r="C686" t="s">
-        <v>714</v>
+        <v>827</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>710</v>
+        <v>826</v>
       </c>
       <c r="B687" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="C687" t="s">
-        <v>715</v>
+        <v>74</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>710</v>
+        <v>828</v>
       </c>
       <c r="B688" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C688" t="s">
-        <v>716</v>
+        <v>829</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>710</v>
+        <v>828</v>
       </c>
       <c r="B689" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="C689" t="s">
-        <v>74</v>
+        <v>830</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>717</v>
+        <v>828</v>
       </c>
       <c r="B690" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="C690" t="s">
-        <v>718</v>
+        <v>831</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>717</v>
+        <v>828</v>
       </c>
       <c r="B691" t="s">
         <v>78</v>
       </c>
       <c r="C691" t="s">
-        <v>719</v>
+        <v>832</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>717</v>
+        <v>828</v>
       </c>
       <c r="B692" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="C692" t="s">
-        <v>720</v>
+        <v>833</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>717</v>
+        <v>834</v>
       </c>
       <c r="B693" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="C693" t="s">
-        <v>721</v>
+        <v>835</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>717</v>
+        <v>834</v>
       </c>
       <c r="B694" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C694" t="s">
-        <v>722</v>
+        <v>836</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>717</v>
+        <v>834</v>
       </c>
       <c r="B695" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C695" t="s">
-        <v>723</v>
+        <v>837</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>717</v>
+        <v>834</v>
       </c>
       <c r="B696" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="C696" t="s">
-        <v>74</v>
+        <v>838</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>724</v>
+        <v>834</v>
       </c>
       <c r="B697" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C697" t="s">
-        <v>725</v>
+        <v>839</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="s">
-        <v>724</v>
+        <v>834</v>
       </c>
       <c r="B698" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C698" t="s">
-        <v>726</v>
+        <v>840</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>724</v>
+        <v>841</v>
       </c>
       <c r="B699" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="C699" t="s">
-        <v>727</v>
+        <v>842</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>724</v>
+        <v>841</v>
       </c>
       <c r="B700" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="C700" t="s">
-        <v>76</v>
+        <v>843</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="s">
-        <v>724</v>
+        <v>841</v>
       </c>
       <c r="B701" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C701" t="s">
-        <v>74</v>
+        <v>844</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="s">
-        <v>728</v>
+        <v>841</v>
       </c>
       <c r="B702" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C702" t="s">
-        <v>76</v>
+        <v>845</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="s">
-        <v>728</v>
+        <v>841</v>
       </c>
       <c r="B703" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C703" t="s">
-        <v>419</v>
+        <v>846</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="s">
-        <v>728</v>
+        <v>841</v>
       </c>
       <c r="B704" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C704" t="s">
-        <v>420</v>
+        <v>847</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="s">
-        <v>728</v>
+        <v>848</v>
       </c>
       <c r="B705" t="s">
-        <v>80</v>
+        <v>557</v>
       </c>
       <c r="C705" t="s">
-        <v>421</v>
+        <v>557</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>728</v>
+        <v>848</v>
       </c>
       <c r="B706" t="s">
-        <v>82</v>
+        <v>558</v>
       </c>
       <c r="C706" t="s">
-        <v>422</v>
+        <v>558</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>728</v>
+        <v>848</v>
       </c>
       <c r="B707" t="s">
-        <v>90</v>
+        <v>559</v>
       </c>
       <c r="C707" t="s">
-        <v>423</v>
+        <v>559</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>728</v>
+        <v>848</v>
       </c>
       <c r="B708" t="s">
-        <v>92</v>
+        <v>560</v>
       </c>
       <c r="C708" t="s">
-        <v>424</v>
+        <v>560</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="s">
-        <v>728</v>
+        <v>848</v>
       </c>
       <c r="B709" t="s">
-        <v>94</v>
+        <v>561</v>
       </c>
       <c r="C709" t="s">
-        <v>425</v>
+        <v>561</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>728</v>
+        <v>848</v>
       </c>
       <c r="B710" t="s">
-        <v>96</v>
+        <v>562</v>
       </c>
       <c r="C710" t="s">
-        <v>426</v>
+        <v>562</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="s">
-        <v>728</v>
+        <v>848</v>
       </c>
       <c r="B711" t="s">
-        <v>98</v>
+        <v>563</v>
       </c>
       <c r="C711" t="s">
-        <v>427</v>
+        <v>563</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="s">
-        <v>728</v>
+        <v>848</v>
       </c>
       <c r="B712" t="s">
-        <v>100</v>
+        <v>564</v>
       </c>
       <c r="C712" t="s">
-        <v>428</v>
+        <v>564</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="s">
-        <v>728</v>
+        <v>848</v>
       </c>
       <c r="B713" t="s">
-        <v>201</v>
+        <v>565</v>
       </c>
       <c r="C713" t="s">
-        <v>429</v>
+        <v>565</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="s">
-        <v>728</v>
+        <v>848</v>
       </c>
       <c r="B714" t="s">
-        <v>215</v>
+        <v>566</v>
       </c>
       <c r="C714" t="s">
-        <v>430</v>
+        <v>566</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="s">
-        <v>729</v>
+        <v>848</v>
       </c>
       <c r="B715" t="s">
-        <v>730</v>
+        <v>849</v>
       </c>
       <c r="C715" t="s">
-        <v>731</v>
+        <v>850</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="s">
-        <v>729</v>
+        <v>848</v>
       </c>
       <c r="B716" t="s">
-        <v>732</v>
+        <v>851</v>
       </c>
       <c r="C716" t="s">
-        <v>733</v>
+        <v>852</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="s">
-        <v>729</v>
+        <v>848</v>
       </c>
       <c r="B717" t="s">
-        <v>734</v>
+        <v>853</v>
       </c>
       <c r="C717" t="s">
-        <v>735</v>
+        <v>854</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="s">
-        <v>729</v>
+        <v>848</v>
       </c>
       <c r="B718" t="s">
-        <v>736</v>
+        <v>855</v>
       </c>
       <c r="C718" t="s">
-        <v>737</v>
+        <v>856</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="s">
-        <v>729</v>
+        <v>848</v>
       </c>
       <c r="B719" t="s">
-        <v>738</v>
+        <v>857</v>
       </c>
       <c r="C719" t="s">
-        <v>738</v>
+        <v>858</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>729</v>
+        <v>848</v>
       </c>
       <c r="B720" t="s">
-        <v>739</v>
+        <v>859</v>
       </c>
       <c r="C720" t="s">
-        <v>739</v>
+        <v>860</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>729</v>
+        <v>848</v>
       </c>
       <c r="B721" t="s">
-        <v>740</v>
+        <v>861</v>
       </c>
       <c r="C721" t="s">
-        <v>741</v>
+        <v>862</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="s">
-        <v>729</v>
+        <v>848</v>
       </c>
       <c r="B722" t="s">
-        <v>742</v>
+        <v>863</v>
       </c>
       <c r="C722" t="s">
-        <v>743</v>
+        <v>864</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="s">
-        <v>729</v>
+        <v>848</v>
       </c>
       <c r="B723" t="s">
-        <v>8</v>
+        <v>865</v>
       </c>
       <c r="C723" t="s">
-        <v>74</v>
+        <v>866</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="s">
-        <v>744</v>
+        <v>848</v>
       </c>
       <c r="B724" t="s">
-        <v>730</v>
+        <v>867</v>
       </c>
       <c r="C724" t="s">
-        <v>731</v>
+        <v>868</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="s">
-        <v>744</v>
+        <v>237</v>
       </c>
       <c r="B725" t="s">
-        <v>738</v>
+        <v>869</v>
       </c>
       <c r="C725" t="s">
-        <v>738</v>
+        <v>870</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="s">
-        <v>744</v>
+        <v>237</v>
       </c>
       <c r="B726" t="s">
-        <v>740</v>
+        <v>871</v>
       </c>
       <c r="C726" t="s">
-        <v>741</v>
+        <v>872</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="s">
-        <v>744</v>
+        <v>237</v>
       </c>
       <c r="B727" t="s">
-        <v>745</v>
+        <v>873</v>
       </c>
       <c r="C727" t="s">
-        <v>746</v>
+        <v>874</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="s">
-        <v>744</v>
+        <v>237</v>
       </c>
       <c r="B728" t="s">
-        <v>747</v>
+        <v>875</v>
       </c>
       <c r="C728" t="s">
-        <v>748</v>
+        <v>876</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="s">
-        <v>744</v>
+        <v>237</v>
       </c>
       <c r="B729" t="s">
         <v>8</v>
@@ -11136,95 +11136,95 @@
     </row>
     <row r="730">
       <c r="A730" t="s">
-        <v>749</v>
+        <v>877</v>
       </c>
       <c r="B730" t="s">
-        <v>730</v>
+        <v>476</v>
       </c>
       <c r="C730" t="s">
-        <v>731</v>
+        <v>596</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="s">
-        <v>749</v>
+        <v>877</v>
       </c>
       <c r="B731" t="s">
-        <v>732</v>
+        <v>478</v>
       </c>
       <c r="C731" t="s">
-        <v>733</v>
+        <v>878</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="s">
-        <v>749</v>
+        <v>877</v>
       </c>
       <c r="B732" t="s">
-        <v>734</v>
+        <v>480</v>
       </c>
       <c r="C732" t="s">
-        <v>735</v>
+        <v>481</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="s">
-        <v>749</v>
+        <v>877</v>
       </c>
       <c r="B733" t="s">
-        <v>736</v>
+        <v>597</v>
       </c>
       <c r="C733" t="s">
-        <v>737</v>
+        <v>482</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="s">
-        <v>749</v>
+        <v>877</v>
       </c>
       <c r="B734" t="s">
-        <v>750</v>
+        <v>598</v>
       </c>
       <c r="C734" t="s">
-        <v>750</v>
+        <v>484</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="s">
-        <v>749</v>
+        <v>877</v>
       </c>
       <c r="B735" t="s">
-        <v>751</v>
+        <v>599</v>
       </c>
       <c r="C735" t="s">
-        <v>752</v>
+        <v>486</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="s">
-        <v>749</v>
+        <v>877</v>
       </c>
       <c r="B736" t="s">
-        <v>739</v>
+        <v>487</v>
       </c>
       <c r="C736" t="s">
-        <v>739</v>
+        <v>488</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="s">
-        <v>749</v>
+        <v>877</v>
       </c>
       <c r="B737" t="s">
-        <v>753</v>
+        <v>600</v>
       </c>
       <c r="C737" t="s">
-        <v>753</v>
+        <v>490</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="s">
-        <v>749</v>
+        <v>877</v>
       </c>
       <c r="B738" t="s">
         <v>8</v>
@@ -11235,2168 +11235,606 @@
     </row>
     <row r="739">
       <c r="A739" t="s">
-        <v>754</v>
+        <v>877</v>
       </c>
       <c r="B739" t="s">
-        <v>730</v>
+        <v>879</v>
       </c>
       <c r="C739" t="s">
-        <v>731</v>
+        <v>602</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="s">
-        <v>754</v>
+        <v>880</v>
       </c>
       <c r="B740" t="s">
-        <v>732</v>
+        <v>869</v>
       </c>
       <c r="C740" t="s">
-        <v>733</v>
+        <v>870</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="s">
-        <v>754</v>
+        <v>880</v>
       </c>
       <c r="B741" t="s">
-        <v>734</v>
+        <v>871</v>
       </c>
       <c r="C741" t="s">
-        <v>735</v>
+        <v>872</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="s">
-        <v>754</v>
+        <v>880</v>
       </c>
       <c r="B742" t="s">
-        <v>736</v>
+        <v>873</v>
       </c>
       <c r="C742" t="s">
-        <v>737</v>
+        <v>874</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="s">
-        <v>754</v>
+        <v>880</v>
       </c>
       <c r="B743" t="s">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="C743" t="s">
-        <v>750</v>
+        <v>876</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="s">
-        <v>754</v>
+        <v>880</v>
       </c>
       <c r="B744" t="s">
-        <v>751</v>
+        <v>849</v>
       </c>
       <c r="C744" t="s">
-        <v>752</v>
+        <v>881</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="s">
-        <v>754</v>
+        <v>880</v>
       </c>
       <c r="B745" t="s">
-        <v>739</v>
+        <v>851</v>
       </c>
       <c r="C745" t="s">
-        <v>739</v>
+        <v>882</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="s">
-        <v>754</v>
+        <v>880</v>
       </c>
       <c r="B746" t="s">
-        <v>740</v>
+        <v>853</v>
       </c>
       <c r="C746" t="s">
-        <v>741</v>
+        <v>883</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="s">
-        <v>754</v>
+        <v>880</v>
       </c>
       <c r="B747" t="s">
-        <v>745</v>
+        <v>855</v>
       </c>
       <c r="C747" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="s">
-        <v>754</v>
+        <v>880</v>
       </c>
       <c r="B748" t="s">
-        <v>8</v>
+        <v>857</v>
       </c>
       <c r="C748" t="s">
-        <v>74</v>
+        <v>885</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="s">
-        <v>755</v>
+        <v>880</v>
       </c>
       <c r="B749" t="s">
-        <v>22</v>
+        <v>859</v>
       </c>
       <c r="C749" t="s">
-        <v>756</v>
+        <v>886</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="s">
-        <v>755</v>
+        <v>880</v>
       </c>
       <c r="B750" t="s">
-        <v>78</v>
+        <v>861</v>
       </c>
       <c r="C750" t="s">
-        <v>757</v>
+        <v>887</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="s">
-        <v>755</v>
+        <v>880</v>
       </c>
       <c r="B751" t="s">
-        <v>80</v>
+        <v>863</v>
       </c>
       <c r="C751" t="s">
-        <v>758</v>
+        <v>888</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="s">
-        <v>755</v>
+        <v>880</v>
       </c>
       <c r="B752" t="s">
-        <v>82</v>
+        <v>865</v>
       </c>
       <c r="C752" t="s">
-        <v>759</v>
+        <v>889</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="s">
-        <v>755</v>
+        <v>880</v>
       </c>
       <c r="B753" t="s">
-        <v>90</v>
+        <v>867</v>
       </c>
       <c r="C753" t="s">
-        <v>760</v>
+        <v>890</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="s">
-        <v>761</v>
+        <v>891</v>
       </c>
       <c r="B754" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="C754" t="s">
-        <v>762</v>
+        <v>892</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="s">
-        <v>761</v>
+        <v>891</v>
       </c>
       <c r="B755" t="s">
         <v>78</v>
       </c>
       <c r="C755" t="s">
-        <v>763</v>
+        <v>893</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="s">
-        <v>761</v>
+        <v>891</v>
       </c>
       <c r="B756" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="C756" t="s">
-        <v>764</v>
+        <v>894</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="s">
-        <v>761</v>
+        <v>891</v>
       </c>
       <c r="B757" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C757" t="s">
-        <v>765</v>
+        <v>895</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="s">
-        <v>761</v>
+        <v>891</v>
       </c>
       <c r="B758" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C758" t="s">
-        <v>63</v>
+        <v>896</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="s">
-        <v>766</v>
+        <v>897</v>
       </c>
       <c r="B759" t="s">
-        <v>767</v>
+        <v>22</v>
       </c>
       <c r="C759" t="s">
-        <v>768</v>
+        <v>898</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="s">
-        <v>766</v>
+        <v>897</v>
       </c>
       <c r="B760" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="C760" t="s">
-        <v>769</v>
+        <v>899</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="s">
-        <v>766</v>
+        <v>897</v>
       </c>
       <c r="B761" t="s">
-        <v>770</v>
+        <v>80</v>
       </c>
       <c r="C761" t="s">
-        <v>771</v>
+        <v>900</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="s">
-        <v>766</v>
+        <v>897</v>
       </c>
       <c r="B762" t="s">
-        <v>772</v>
+        <v>82</v>
       </c>
       <c r="C762" t="s">
-        <v>773</v>
+        <v>901</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="s">
-        <v>766</v>
+        <v>897</v>
       </c>
       <c r="B763" t="s">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c r="C763" t="s">
-        <v>774</v>
+        <v>902</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="s">
-        <v>766</v>
+        <v>897</v>
       </c>
       <c r="B764" t="s">
-        <v>775</v>
+        <v>8</v>
       </c>
       <c r="C764" t="s">
-        <v>776</v>
+        <v>903</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="B765" t="s">
-        <v>777</v>
+        <v>22</v>
       </c>
       <c r="C765" t="s">
-        <v>778</v>
+        <v>905</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="B766" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C766" t="s">
-        <v>779</v>
+        <v>906</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="B767" t="s">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="C767" t="s">
-        <v>780</v>
+        <v>907</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="B768" t="s">
-        <v>781</v>
+        <v>8</v>
       </c>
       <c r="C768" t="s">
-        <v>782</v>
+        <v>903</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="s">
-        <v>766</v>
+        <v>908</v>
       </c>
       <c r="B769" t="s">
-        <v>783</v>
+        <v>22</v>
       </c>
       <c r="C769" t="s">
-        <v>784</v>
+        <v>624</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="s">
-        <v>766</v>
+        <v>908</v>
       </c>
       <c r="B770" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="C770" t="s">
-        <v>74</v>
+        <v>625</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="s">
-        <v>785</v>
+        <v>908</v>
       </c>
       <c r="B771" t="s">
-        <v>786</v>
+        <v>80</v>
       </c>
       <c r="C771" t="s">
-        <v>787</v>
+        <v>626</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="s">
-        <v>785</v>
+        <v>909</v>
       </c>
       <c r="B772" t="s">
-        <v>788</v>
+        <v>22</v>
       </c>
       <c r="C772" t="s">
-        <v>789</v>
+        <v>628</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="s">
-        <v>785</v>
+        <v>909</v>
       </c>
       <c r="B773" t="s">
-        <v>790</v>
+        <v>78</v>
       </c>
       <c r="C773" t="s">
-        <v>791</v>
+        <v>629</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="s">
-        <v>785</v>
+        <v>909</v>
       </c>
       <c r="B774" t="s">
-        <v>792</v>
+        <v>80</v>
       </c>
       <c r="C774" t="s">
-        <v>793</v>
+        <v>630</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="s">
-        <v>785</v>
+        <v>909</v>
       </c>
       <c r="B775" t="s">
-        <v>794</v>
+        <v>82</v>
       </c>
       <c r="C775" t="s">
-        <v>795</v>
+        <v>631</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="s">
-        <v>785</v>
+        <v>909</v>
       </c>
       <c r="B776" t="s">
-        <v>796</v>
+        <v>90</v>
       </c>
       <c r="C776" t="s">
-        <v>797</v>
+        <v>632</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="s">
-        <v>785</v>
+        <v>909</v>
       </c>
       <c r="B777" t="s">
-        <v>798</v>
+        <v>92</v>
       </c>
       <c r="C777" t="s">
-        <v>799</v>
+        <v>633</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="s">
-        <v>785</v>
+        <v>909</v>
       </c>
       <c r="B778" t="s">
-        <v>800</v>
+        <v>24</v>
       </c>
       <c r="C778" t="s">
-        <v>801</v>
+        <v>634</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="s">
-        <v>785</v>
+        <v>909</v>
       </c>
       <c r="B779" t="s">
-        <v>802</v>
+        <v>8</v>
       </c>
       <c r="C779" t="s">
-        <v>803</v>
+        <v>74</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="s">
-        <v>785</v>
+        <v>910</v>
       </c>
       <c r="B780" t="s">
-        <v>804</v>
+        <v>22</v>
       </c>
       <c r="C780" t="s">
-        <v>805</v>
+        <v>911</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="s">
-        <v>785</v>
+        <v>910</v>
       </c>
       <c r="B781" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="C781" t="s">
-        <v>74</v>
+        <v>912</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="s">
-        <v>806</v>
+        <v>910</v>
       </c>
       <c r="B782" t="s">
-        <v>807</v>
+        <v>80</v>
       </c>
       <c r="C782" t="s">
-        <v>808</v>
+        <v>913</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="s">
-        <v>806</v>
+        <v>910</v>
       </c>
       <c r="B783" t="s">
-        <v>809</v>
+        <v>82</v>
       </c>
       <c r="C783" t="s">
-        <v>810</v>
+        <v>914</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="s">
-        <v>806</v>
+        <v>910</v>
       </c>
       <c r="B784" t="s">
-        <v>811</v>
+        <v>90</v>
       </c>
       <c r="C784" t="s">
-        <v>812</v>
+        <v>915</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="s">
-        <v>806</v>
+        <v>910</v>
       </c>
       <c r="B785" t="s">
-        <v>813</v>
+        <v>92</v>
       </c>
       <c r="C785" t="s">
-        <v>814</v>
+        <v>916</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="s">
-        <v>806</v>
+        <v>910</v>
       </c>
       <c r="B786" t="s">
-        <v>815</v>
+        <v>94</v>
       </c>
       <c r="C786" t="s">
-        <v>816</v>
+        <v>917</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="s">
-        <v>806</v>
+        <v>910</v>
       </c>
       <c r="B787" t="s">
-        <v>817</v>
+        <v>96</v>
       </c>
       <c r="C787" t="s">
-        <v>818</v>
+        <v>918</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="s">
-        <v>819</v>
+        <v>910</v>
       </c>
       <c r="B788" t="s">
-        <v>723</v>
+        <v>181</v>
       </c>
       <c r="C788" t="s">
-        <v>723</v>
+        <v>76</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="s">
-        <v>819</v>
+        <v>910</v>
       </c>
       <c r="B789" t="s">
-        <v>820</v>
+        <v>8</v>
       </c>
       <c r="C789" t="s">
-        <v>821</v>
+        <v>903</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="s">
-        <v>819</v>
+        <v>919</v>
       </c>
       <c r="B790" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C790" t="s">
-        <v>74</v>
+        <v>920</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="s">
-        <v>822</v>
+        <v>919</v>
       </c>
       <c r="B791" t="s">
-        <v>568</v>
+        <v>24</v>
       </c>
       <c r="C791" t="s">
-        <v>569</v>
+        <v>921</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="s">
-        <v>822</v>
+        <v>919</v>
       </c>
       <c r="B792" t="s">
-        <v>572</v>
+        <v>78</v>
       </c>
       <c r="C792" t="s">
-        <v>823</v>
+        <v>922</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="s">
-        <v>822</v>
+        <v>919</v>
       </c>
       <c r="B793" t="s">
-        <v>824</v>
+        <v>113</v>
       </c>
       <c r="C793" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="794">
-      <c r="A794" t="s">
-        <v>822</v>
-      </c>
-      <c r="B794" t="s">
-        <v>8</v>
-      </c>
-      <c r="C794" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="795">
-      <c r="A795" t="s">
-        <v>826</v>
-      </c>
-      <c r="B795" t="s">
-        <v>586</v>
-      </c>
-      <c r="C795" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="796">
-      <c r="A796" t="s">
-        <v>826</v>
-      </c>
-      <c r="B796" t="s">
-        <v>588</v>
-      </c>
-      <c r="C796" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" t="s">
-        <v>826</v>
-      </c>
-      <c r="B797" t="s">
-        <v>8</v>
-      </c>
-      <c r="C797" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" t="s">
-        <v>826</v>
-      </c>
-      <c r="B798" t="s">
-        <v>588</v>
-      </c>
-      <c r="C798" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" t="s">
-        <v>826</v>
-      </c>
-      <c r="B799" t="s">
-        <v>8</v>
-      </c>
-      <c r="C799" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="800">
-      <c r="A800" t="s">
-        <v>826</v>
-      </c>
-      <c r="B800" t="s">
-        <v>588</v>
-      </c>
-      <c r="C800" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" t="s">
-        <v>826</v>
-      </c>
-      <c r="B801" t="s">
-        <v>8</v>
-      </c>
-      <c r="C801" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" t="s">
-        <v>826</v>
-      </c>
-      <c r="B802" t="s">
-        <v>586</v>
-      </c>
-      <c r="C802" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" t="s">
-        <v>826</v>
-      </c>
-      <c r="B803" t="s">
-        <v>588</v>
-      </c>
-      <c r="C803" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" t="s">
-        <v>826</v>
-      </c>
-      <c r="B804" t="s">
-        <v>8</v>
-      </c>
-      <c r="C804" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" t="s">
-        <v>828</v>
-      </c>
-      <c r="B805" t="s">
-        <v>90</v>
-      </c>
-      <c r="C805" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" t="s">
-        <v>828</v>
-      </c>
-      <c r="B806" t="s">
-        <v>82</v>
-      </c>
-      <c r="C806" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" t="s">
-        <v>828</v>
-      </c>
-      <c r="B807" t="s">
-        <v>80</v>
-      </c>
-      <c r="C807" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="808">
-      <c r="A808" t="s">
-        <v>828</v>
-      </c>
-      <c r="B808" t="s">
-        <v>78</v>
-      </c>
-      <c r="C808" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="809">
-      <c r="A809" t="s">
-        <v>828</v>
-      </c>
-      <c r="B809" t="s">
-        <v>22</v>
-      </c>
-      <c r="C809" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="810">
-      <c r="A810" t="s">
-        <v>834</v>
-      </c>
-      <c r="B810" t="s">
-        <v>22</v>
-      </c>
-      <c r="C810" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="811">
-      <c r="A811" t="s">
-        <v>834</v>
-      </c>
-      <c r="B811" t="s">
-        <v>78</v>
-      </c>
-      <c r="C811" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="812">
-      <c r="A812" t="s">
-        <v>834</v>
-      </c>
-      <c r="B812" t="s">
-        <v>80</v>
-      </c>
-      <c r="C812" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="813">
-      <c r="A813" t="s">
-        <v>834</v>
-      </c>
-      <c r="B813" t="s">
-        <v>82</v>
-      </c>
-      <c r="C813" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="814">
-      <c r="A814" t="s">
-        <v>834</v>
-      </c>
-      <c r="B814" t="s">
-        <v>90</v>
-      </c>
-      <c r="C814" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="815">
-      <c r="A815" t="s">
-        <v>834</v>
-      </c>
-      <c r="B815" t="s">
-        <v>92</v>
-      </c>
-      <c r="C815" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="816">
-      <c r="A816" t="s">
-        <v>841</v>
-      </c>
-      <c r="B816" t="s">
-        <v>22</v>
-      </c>
-      <c r="C816" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="817">
-      <c r="A817" t="s">
-        <v>841</v>
-      </c>
-      <c r="B817" t="s">
-        <v>78</v>
-      </c>
-      <c r="C817" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="818">
-      <c r="A818" t="s">
-        <v>841</v>
-      </c>
-      <c r="B818" t="s">
-        <v>80</v>
-      </c>
-      <c r="C818" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="819">
-      <c r="A819" t="s">
-        <v>841</v>
-      </c>
-      <c r="B819" t="s">
-        <v>82</v>
-      </c>
-      <c r="C819" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="820">
-      <c r="A820" t="s">
-        <v>841</v>
-      </c>
-      <c r="B820" t="s">
-        <v>90</v>
-      </c>
-      <c r="C820" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="821">
-      <c r="A821" t="s">
-        <v>841</v>
-      </c>
-      <c r="B821" t="s">
-        <v>92</v>
-      </c>
-      <c r="C821" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="822">
-      <c r="A822" t="s">
-        <v>848</v>
-      </c>
-      <c r="B822" t="s">
-        <v>557</v>
-      </c>
-      <c r="C822" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="823">
-      <c r="A823" t="s">
-        <v>848</v>
-      </c>
-      <c r="B823" t="s">
-        <v>558</v>
-      </c>
-      <c r="C823" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="824">
-      <c r="A824" t="s">
-        <v>848</v>
-      </c>
-      <c r="B824" t="s">
-        <v>559</v>
-      </c>
-      <c r="C824" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="825">
-      <c r="A825" t="s">
-        <v>848</v>
-      </c>
-      <c r="B825" t="s">
-        <v>560</v>
-      </c>
-      <c r="C825" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="826">
-      <c r="A826" t="s">
-        <v>848</v>
-      </c>
-      <c r="B826" t="s">
-        <v>561</v>
-      </c>
-      <c r="C826" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="827">
-      <c r="A827" t="s">
-        <v>848</v>
-      </c>
-      <c r="B827" t="s">
-        <v>562</v>
-      </c>
-      <c r="C827" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="828">
-      <c r="A828" t="s">
-        <v>848</v>
-      </c>
-      <c r="B828" t="s">
-        <v>563</v>
-      </c>
-      <c r="C828" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="829">
-      <c r="A829" t="s">
-        <v>848</v>
-      </c>
-      <c r="B829" t="s">
-        <v>564</v>
-      </c>
-      <c r="C829" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="830">
-      <c r="A830" t="s">
-        <v>848</v>
-      </c>
-      <c r="B830" t="s">
-        <v>565</v>
-      </c>
-      <c r="C830" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="831">
-      <c r="A831" t="s">
-        <v>848</v>
-      </c>
-      <c r="B831" t="s">
-        <v>566</v>
-      </c>
-      <c r="C831" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="832">
-      <c r="A832" t="s">
-        <v>848</v>
-      </c>
-      <c r="B832" t="s">
-        <v>849</v>
-      </c>
-      <c r="C832" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="833">
-      <c r="A833" t="s">
-        <v>848</v>
-      </c>
-      <c r="B833" t="s">
-        <v>851</v>
-      </c>
-      <c r="C833" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="834">
-      <c r="A834" t="s">
-        <v>848</v>
-      </c>
-      <c r="B834" t="s">
-        <v>853</v>
-      </c>
-      <c r="C834" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="835">
-      <c r="A835" t="s">
-        <v>848</v>
-      </c>
-      <c r="B835" t="s">
-        <v>855</v>
-      </c>
-      <c r="C835" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="836">
-      <c r="A836" t="s">
-        <v>848</v>
-      </c>
-      <c r="B836" t="s">
-        <v>857</v>
-      </c>
-      <c r="C836" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="837">
-      <c r="A837" t="s">
-        <v>848</v>
-      </c>
-      <c r="B837" t="s">
-        <v>859</v>
-      </c>
-      <c r="C837" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="838">
-      <c r="A838" t="s">
-        <v>848</v>
-      </c>
-      <c r="B838" t="s">
-        <v>861</v>
-      </c>
-      <c r="C838" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="839">
-      <c r="A839" t="s">
-        <v>848</v>
-      </c>
-      <c r="B839" t="s">
-        <v>863</v>
-      </c>
-      <c r="C839" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="840">
-      <c r="A840" t="s">
-        <v>848</v>
-      </c>
-      <c r="B840" t="s">
-        <v>865</v>
-      </c>
-      <c r="C840" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="841">
-      <c r="A841" t="s">
-        <v>848</v>
-      </c>
-      <c r="B841" t="s">
-        <v>867</v>
-      </c>
-      <c r="C841" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="842">
-      <c r="A842" t="s">
-        <v>237</v>
-      </c>
-      <c r="B842" t="s">
-        <v>869</v>
-      </c>
-      <c r="C842" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="843">
-      <c r="A843" t="s">
-        <v>237</v>
-      </c>
-      <c r="B843" t="s">
-        <v>871</v>
-      </c>
-      <c r="C843" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="844">
-      <c r="A844" t="s">
-        <v>237</v>
-      </c>
-      <c r="B844" t="s">
-        <v>873</v>
-      </c>
-      <c r="C844" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="845">
-      <c r="A845" t="s">
-        <v>237</v>
-      </c>
-      <c r="B845" t="s">
-        <v>875</v>
-      </c>
-      <c r="C845" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="846">
-      <c r="A846" t="s">
-        <v>237</v>
-      </c>
-      <c r="B846" t="s">
-        <v>8</v>
-      </c>
-      <c r="C846" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="847">
-      <c r="A847" t="s">
-        <v>877</v>
-      </c>
-      <c r="B847" t="s">
-        <v>476</v>
-      </c>
-      <c r="C847" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="848">
-      <c r="A848" t="s">
-        <v>877</v>
-      </c>
-      <c r="B848" t="s">
-        <v>478</v>
-      </c>
-      <c r="C848" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="849">
-      <c r="A849" t="s">
-        <v>877</v>
-      </c>
-      <c r="B849" t="s">
-        <v>480</v>
-      </c>
-      <c r="C849" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="850">
-      <c r="A850" t="s">
-        <v>877</v>
-      </c>
-      <c r="B850" t="s">
-        <v>597</v>
-      </c>
-      <c r="C850" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="851">
-      <c r="A851" t="s">
-        <v>877</v>
-      </c>
-      <c r="B851" t="s">
-        <v>598</v>
-      </c>
-      <c r="C851" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="852">
-      <c r="A852" t="s">
-        <v>877</v>
-      </c>
-      <c r="B852" t="s">
-        <v>599</v>
-      </c>
-      <c r="C852" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="853">
-      <c r="A853" t="s">
-        <v>877</v>
-      </c>
-      <c r="B853" t="s">
-        <v>487</v>
-      </c>
-      <c r="C853" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="854">
-      <c r="A854" t="s">
-        <v>877</v>
-      </c>
-      <c r="B854" t="s">
-        <v>600</v>
-      </c>
-      <c r="C854" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="855">
-      <c r="A855" t="s">
-        <v>877</v>
-      </c>
-      <c r="B855" t="s">
-        <v>8</v>
-      </c>
-      <c r="C855" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="856">
-      <c r="A856" t="s">
-        <v>877</v>
-      </c>
-      <c r="B856" t="s">
-        <v>879</v>
-      </c>
-      <c r="C856" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="857">
-      <c r="A857" t="s">
-        <v>877</v>
-      </c>
-      <c r="B857" t="s">
-        <v>480</v>
-      </c>
-      <c r="C857" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="858">
-      <c r="A858" t="s">
-        <v>877</v>
-      </c>
-      <c r="B858" t="s">
-        <v>597</v>
-      </c>
-      <c r="C858" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="859">
-      <c r="A859" t="s">
-        <v>877</v>
-      </c>
-      <c r="B859" t="s">
-        <v>598</v>
-      </c>
-      <c r="C859" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="860">
-      <c r="A860" t="s">
-        <v>877</v>
-      </c>
-      <c r="B860" t="s">
-        <v>599</v>
-      </c>
-      <c r="C860" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="861">
-      <c r="A861" t="s">
-        <v>877</v>
-      </c>
-      <c r="B861" t="s">
-        <v>487</v>
-      </c>
-      <c r="C861" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="862">
-      <c r="A862" t="s">
-        <v>877</v>
-      </c>
-      <c r="B862" t="s">
-        <v>600</v>
-      </c>
-      <c r="C862" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="863">
-      <c r="A863" t="s">
-        <v>877</v>
-      </c>
-      <c r="B863" t="s">
-        <v>8</v>
-      </c>
-      <c r="C863" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="864">
-      <c r="A864" t="s">
-        <v>877</v>
-      </c>
-      <c r="B864" t="s">
-        <v>476</v>
-      </c>
-      <c r="C864" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="865">
-      <c r="A865" t="s">
-        <v>877</v>
-      </c>
-      <c r="B865" t="s">
-        <v>879</v>
-      </c>
-      <c r="C865" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="866">
-      <c r="A866" t="s">
-        <v>877</v>
-      </c>
-      <c r="B866" t="s">
-        <v>478</v>
-      </c>
-      <c r="C866" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="867">
-      <c r="A867" t="s">
-        <v>877</v>
-      </c>
-      <c r="B867" t="s">
-        <v>480</v>
-      </c>
-      <c r="C867" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="868">
-      <c r="A868" t="s">
-        <v>877</v>
-      </c>
-      <c r="B868" t="s">
-        <v>597</v>
-      </c>
-      <c r="C868" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="869">
-      <c r="A869" t="s">
-        <v>877</v>
-      </c>
-      <c r="B869" t="s">
-        <v>598</v>
-      </c>
-      <c r="C869" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="870">
-      <c r="A870" t="s">
-        <v>877</v>
-      </c>
-      <c r="B870" t="s">
-        <v>599</v>
-      </c>
-      <c r="C870" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="871">
-      <c r="A871" t="s">
-        <v>877</v>
-      </c>
-      <c r="B871" t="s">
-        <v>487</v>
-      </c>
-      <c r="C871" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="872">
-      <c r="A872" t="s">
-        <v>877</v>
-      </c>
-      <c r="B872" t="s">
-        <v>600</v>
-      </c>
-      <c r="C872" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="873">
-      <c r="A873" t="s">
-        <v>877</v>
-      </c>
-      <c r="B873" t="s">
-        <v>8</v>
-      </c>
-      <c r="C873" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="874">
-      <c r="A874" t="s">
-        <v>877</v>
-      </c>
-      <c r="B874" t="s">
-        <v>879</v>
-      </c>
-      <c r="C874" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="875">
-      <c r="A875" t="s">
-        <v>877</v>
-      </c>
-      <c r="B875" t="s">
-        <v>480</v>
-      </c>
-      <c r="C875" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="876">
-      <c r="A876" t="s">
-        <v>877</v>
-      </c>
-      <c r="B876" t="s">
-        <v>597</v>
-      </c>
-      <c r="C876" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="877">
-      <c r="A877" t="s">
-        <v>877</v>
-      </c>
-      <c r="B877" t="s">
-        <v>598</v>
-      </c>
-      <c r="C877" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="878">
-      <c r="A878" t="s">
-        <v>877</v>
-      </c>
-      <c r="B878" t="s">
-        <v>599</v>
-      </c>
-      <c r="C878" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="879">
-      <c r="A879" t="s">
-        <v>877</v>
-      </c>
-      <c r="B879" t="s">
-        <v>487</v>
-      </c>
-      <c r="C879" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="880">
-      <c r="A880" t="s">
-        <v>877</v>
-      </c>
-      <c r="B880" t="s">
-        <v>600</v>
-      </c>
-      <c r="C880" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="881">
-      <c r="A881" t="s">
-        <v>877</v>
-      </c>
-      <c r="B881" t="s">
-        <v>8</v>
-      </c>
-      <c r="C881" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="882">
-      <c r="A882" t="s">
-        <v>880</v>
-      </c>
-      <c r="B882" t="s">
-        <v>869</v>
-      </c>
-      <c r="C882" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="883">
-      <c r="A883" t="s">
-        <v>880</v>
-      </c>
-      <c r="B883" t="s">
-        <v>871</v>
-      </c>
-      <c r="C883" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="884">
-      <c r="A884" t="s">
-        <v>880</v>
-      </c>
-      <c r="B884" t="s">
-        <v>873</v>
-      </c>
-      <c r="C884" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="885">
-      <c r="A885" t="s">
-        <v>880</v>
-      </c>
-      <c r="B885" t="s">
-        <v>875</v>
-      </c>
-      <c r="C885" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="886">
-      <c r="A886" t="s">
-        <v>880</v>
-      </c>
-      <c r="B886" t="s">
-        <v>849</v>
-      </c>
-      <c r="C886" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="887">
-      <c r="A887" t="s">
-        <v>880</v>
-      </c>
-      <c r="B887" t="s">
-        <v>851</v>
-      </c>
-      <c r="C887" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="888">
-      <c r="A888" t="s">
-        <v>880</v>
-      </c>
-      <c r="B888" t="s">
-        <v>853</v>
-      </c>
-      <c r="C888" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="889">
-      <c r="A889" t="s">
-        <v>880</v>
-      </c>
-      <c r="B889" t="s">
-        <v>855</v>
-      </c>
-      <c r="C889" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="890">
-      <c r="A890" t="s">
-        <v>880</v>
-      </c>
-      <c r="B890" t="s">
-        <v>857</v>
-      </c>
-      <c r="C890" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="891">
-      <c r="A891" t="s">
-        <v>880</v>
-      </c>
-      <c r="B891" t="s">
-        <v>859</v>
-      </c>
-      <c r="C891" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="892">
-      <c r="A892" t="s">
-        <v>880</v>
-      </c>
-      <c r="B892" t="s">
-        <v>861</v>
-      </c>
-      <c r="C892" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="893">
-      <c r="A893" t="s">
-        <v>880</v>
-      </c>
-      <c r="B893" t="s">
-        <v>863</v>
-      </c>
-      <c r="C893" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="894">
-      <c r="A894" t="s">
-        <v>880</v>
-      </c>
-      <c r="B894" t="s">
-        <v>865</v>
-      </c>
-      <c r="C894" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="895">
-      <c r="A895" t="s">
-        <v>880</v>
-      </c>
-      <c r="B895" t="s">
-        <v>867</v>
-      </c>
-      <c r="C895" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="896">
-      <c r="A896" t="s">
-        <v>891</v>
-      </c>
-      <c r="B896" t="s">
-        <v>22</v>
-      </c>
-      <c r="C896" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="897">
-      <c r="A897" t="s">
-        <v>891</v>
-      </c>
-      <c r="B897" t="s">
-        <v>78</v>
-      </c>
-      <c r="C897" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="898">
-      <c r="A898" t="s">
-        <v>891</v>
-      </c>
-      <c r="B898" t="s">
-        <v>80</v>
-      </c>
-      <c r="C898" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="899">
-      <c r="A899" t="s">
-        <v>891</v>
-      </c>
-      <c r="B899" t="s">
-        <v>82</v>
-      </c>
-      <c r="C899" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="900">
-      <c r="A900" t="s">
-        <v>891</v>
-      </c>
-      <c r="B900" t="s">
-        <v>90</v>
-      </c>
-      <c r="C900" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="901">
-      <c r="A901" t="s">
-        <v>897</v>
-      </c>
-      <c r="B901" t="s">
-        <v>22</v>
-      </c>
-      <c r="C901" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="902">
-      <c r="A902" t="s">
-        <v>897</v>
-      </c>
-      <c r="B902" t="s">
-        <v>78</v>
-      </c>
-      <c r="C902" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="903">
-      <c r="A903" t="s">
-        <v>897</v>
-      </c>
-      <c r="B903" t="s">
-        <v>80</v>
-      </c>
-      <c r="C903" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="904">
-      <c r="A904" t="s">
-        <v>897</v>
-      </c>
-      <c r="B904" t="s">
-        <v>82</v>
-      </c>
-      <c r="C904" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="905">
-      <c r="A905" t="s">
-        <v>897</v>
-      </c>
-      <c r="B905" t="s">
-        <v>90</v>
-      </c>
-      <c r="C905" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="906">
-      <c r="A906" t="s">
-        <v>897</v>
-      </c>
-      <c r="B906" t="s">
-        <v>8</v>
-      </c>
-      <c r="C906" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="907">
-      <c r="A907" t="s">
-        <v>904</v>
-      </c>
-      <c r="B907" t="s">
-        <v>22</v>
-      </c>
-      <c r="C907" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="908">
-      <c r="A908" t="s">
-        <v>904</v>
-      </c>
-      <c r="B908" t="s">
-        <v>78</v>
-      </c>
-      <c r="C908" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="909">
-      <c r="A909" t="s">
-        <v>904</v>
-      </c>
-      <c r="B909" t="s">
-        <v>80</v>
-      </c>
-      <c r="C909" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="910">
-      <c r="A910" t="s">
-        <v>904</v>
-      </c>
-      <c r="B910" t="s">
-        <v>8</v>
-      </c>
-      <c r="C910" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="911">
-      <c r="A911" t="s">
-        <v>908</v>
-      </c>
-      <c r="B911" t="s">
-        <v>22</v>
-      </c>
-      <c r="C911" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="912">
-      <c r="A912" t="s">
-        <v>908</v>
-      </c>
-      <c r="B912" t="s">
-        <v>78</v>
-      </c>
-      <c r="C912" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="913">
-      <c r="A913" t="s">
-        <v>908</v>
-      </c>
-      <c r="B913" t="s">
-        <v>80</v>
-      </c>
-      <c r="C913" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="914">
-      <c r="A914" t="s">
-        <v>909</v>
-      </c>
-      <c r="B914" t="s">
-        <v>22</v>
-      </c>
-      <c r="C914" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="915">
-      <c r="A915" t="s">
-        <v>909</v>
-      </c>
-      <c r="B915" t="s">
-        <v>78</v>
-      </c>
-      <c r="C915" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="916">
-      <c r="A916" t="s">
-        <v>909</v>
-      </c>
-      <c r="B916" t="s">
-        <v>80</v>
-      </c>
-      <c r="C916" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="917">
-      <c r="A917" t="s">
-        <v>909</v>
-      </c>
-      <c r="B917" t="s">
-        <v>82</v>
-      </c>
-      <c r="C917" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="918">
-      <c r="A918" t="s">
-        <v>909</v>
-      </c>
-      <c r="B918" t="s">
-        <v>90</v>
-      </c>
-      <c r="C918" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="919">
-      <c r="A919" t="s">
-        <v>909</v>
-      </c>
-      <c r="B919" t="s">
-        <v>92</v>
-      </c>
-      <c r="C919" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="920">
-      <c r="A920" t="s">
-        <v>909</v>
-      </c>
-      <c r="B920" t="s">
-        <v>24</v>
-      </c>
-      <c r="C920" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="921">
-      <c r="A921" t="s">
-        <v>909</v>
-      </c>
-      <c r="B921" t="s">
-        <v>8</v>
-      </c>
-      <c r="C921" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="922">
-      <c r="A922" t="s">
-        <v>910</v>
-      </c>
-      <c r="B922" t="s">
-        <v>22</v>
-      </c>
-      <c r="C922" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="923">
-      <c r="A923" t="s">
-        <v>910</v>
-      </c>
-      <c r="B923" t="s">
-        <v>78</v>
-      </c>
-      <c r="C923" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="924">
-      <c r="A924" t="s">
-        <v>910</v>
-      </c>
-      <c r="B924" t="s">
-        <v>80</v>
-      </c>
-      <c r="C924" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="925">
-      <c r="A925" t="s">
-        <v>910</v>
-      </c>
-      <c r="B925" t="s">
-        <v>82</v>
-      </c>
-      <c r="C925" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="926">
-      <c r="A926" t="s">
-        <v>910</v>
-      </c>
-      <c r="B926" t="s">
-        <v>90</v>
-      </c>
-      <c r="C926" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="927">
-      <c r="A927" t="s">
-        <v>910</v>
-      </c>
-      <c r="B927" t="s">
-        <v>92</v>
-      </c>
-      <c r="C927" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="928">
-      <c r="A928" t="s">
-        <v>910</v>
-      </c>
-      <c r="B928" t="s">
-        <v>94</v>
-      </c>
-      <c r="C928" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="929">
-      <c r="A929" t="s">
-        <v>910</v>
-      </c>
-      <c r="B929" t="s">
-        <v>96</v>
-      </c>
-      <c r="C929" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="930">
-      <c r="A930" t="s">
-        <v>910</v>
-      </c>
-      <c r="B930" t="s">
-        <v>181</v>
-      </c>
-      <c r="C930" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="931">
-      <c r="A931" t="s">
-        <v>910</v>
-      </c>
-      <c r="B931" t="s">
-        <v>8</v>
-      </c>
-      <c r="C931" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="932">
-      <c r="A932" t="s">
-        <v>919</v>
-      </c>
-      <c r="B932" t="s">
-        <v>22</v>
-      </c>
-      <c r="C932" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="933">
-      <c r="A933" t="s">
-        <v>919</v>
-      </c>
-      <c r="B933" t="s">
-        <v>24</v>
-      </c>
-      <c r="C933" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="934">
-      <c r="A934" t="s">
-        <v>919</v>
-      </c>
-      <c r="B934" t="s">
-        <v>78</v>
-      </c>
-      <c r="C934" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="935">
-      <c r="A935" t="s">
-        <v>919</v>
-      </c>
-      <c r="B935" t="s">
-        <v>113</v>
-      </c>
-      <c r="C935" t="s">
         <v>923</v>
       </c>
     </row>
